--- a/public/template-clients.xlsx
+++ b/public/template-clients.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daust\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daust\dev\lapontificia\discounts-app-laravel\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF718F32-9F6D-47D5-B7C6-12E86EC956C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E593963-C412-426B-B235-414F8D768B82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1ADD6E32-E215-4083-85BA-B11BCA0C9951}"/>
   </bookViews>
@@ -44,9 +44,6 @@
     <t>nombres</t>
   </si>
   <si>
-    <t>unidad de negocio</t>
-  </si>
-  <si>
     <t>status (0,1)</t>
   </si>
   <si>
@@ -54,6 +51,9 @@
   </si>
   <si>
     <t>tipo (docente, alumno, directivo, ppff)</t>
+  </si>
+  <si>
+    <t>Comunidad Educativa</t>
   </si>
 </sst>
 </file>
@@ -475,7 +475,7 @@
   <dimension ref="A2:M18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -491,7 +491,7 @@
   <sheetData>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>0</v>
@@ -500,13 +500,13 @@
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
